--- a/dataset/result/tiedK_time.xlsx
+++ b/dataset/result/tiedK_time.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,22 +509,22 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04819277108433735</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="K2" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08</v>
+        <v>0.049079754601227</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>591</v>
+        <v>525</v>
       </c>
       <c r="H3" t="n">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>0.112781954887218</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="4">
@@ -579,40 +579,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>901</v>
+        <v>308</v>
       </c>
       <c r="H4" t="n">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="H5" t="n">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>0.032</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +667,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="H6" t="n">
-        <v>486</v>
+        <v>124</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07074569789674952</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1298245614035088</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>343</v>
+        <v>529</v>
       </c>
       <c r="H7" t="n">
-        <v>734</v>
+        <v>180</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05167958656330749</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09685230024213075</v>
+        <v>0.05150214592274678</v>
       </c>
     </row>
     <row r="8">
@@ -755,12 +755,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="H8" t="n">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.032</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.05047318611987382</v>
       </c>
     </row>
     <row r="9">
@@ -799,12 +799,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H9" t="n">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07468879668049792</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1361058601134215</v>
+        <v>0.08817635270541083</v>
       </c>
     </row>
     <row r="10">
@@ -848,35 +848,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>448</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
-        <v>629</v>
+        <v>468</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03505154639175258</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6538461538461539</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0951048951048951</v>
+        <v>0.06772908366533864</v>
       </c>
     </row>
     <row r="11">
@@ -892,35 +892,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G11" t="n">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="H11" t="n">
-        <v>361</v>
+        <v>663</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.06488011283497884</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1216931216931217</v>
       </c>
     </row>
     <row r="12">
@@ -936,35 +936,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="H12" t="n">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05517241379310345</v>
+        <v>0.03063457330415755</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09958506224066389</v>
+        <v>0.05907172995780591</v>
       </c>
     </row>
     <row r="13">
@@ -980,35 +980,1267 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>624</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.06446776611694154</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1204481792717087</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>469</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03497942386831276</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.06759443339960239</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>46</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>669</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.06433566433566433</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1207349081364829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>under</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31</v>
-      </c>
-      <c r="G13" t="n">
-        <v>530</v>
-      </c>
-      <c r="H13" t="n">
-        <v>547</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36</v>
+      </c>
+      <c r="H16" t="n">
+        <v>471</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.03483606557377049</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06732673267326733</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46</v>
+      </c>
+      <c r="G17" t="n">
+        <v>36</v>
+      </c>
+      <c r="H17" t="n">
+        <v>673</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.06397774687065369</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1201044386422977</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>464</v>
+      </c>
+      <c r="H18" t="n">
+        <v>43</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>683</v>
+      </c>
+      <c r="H19" t="n">
+        <v>26</v>
+      </c>
+      <c r="I19" t="n">
+        <v>46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>224</v>
+      </c>
+      <c r="H20" t="n">
+        <v>283</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02076124567474048</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>334</v>
+      </c>
+      <c r="H21" t="n">
+        <v>375</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03598971722365039</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.06422018348623854</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>249</v>
+      </c>
+      <c r="H22" t="n">
+        <v>258</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.04270462633451957</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>363</v>
+      </c>
+      <c r="H23" t="n">
+        <v>346</v>
+      </c>
+      <c r="I23" t="n">
+        <v>37</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02808988764044944</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.04962779156327544</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>228</v>
+      </c>
+      <c r="H24" t="n">
+        <v>279</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01413427561837456</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>302</v>
+      </c>
+      <c r="H25" t="n">
+        <v>407</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.04235294117647059</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.07627118644067797</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>420</v>
+      </c>
+      <c r="H26" t="n">
+        <v>87</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02247191011235955</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.03773584905660377</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>594</v>
+      </c>
+      <c r="H27" t="n">
+        <v>115</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02542372881355932</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.03636363636363636</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>329</v>
+      </c>
+      <c r="H28" t="n">
+        <v>178</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.05970149253731343</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>489</v>
+      </c>
+      <c r="H29" t="n">
+        <v>220</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.05818181818181818</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>376</v>
+      </c>
+      <c r="H30" t="n">
+        <v>131</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02238805970149254</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.03973509933774835</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>560</v>
+      </c>
+      <c r="H31" t="n">
+        <v>149</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0261437908496732</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>205</v>
+      </c>
+      <c r="H32" t="n">
+        <v>302</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.02893890675241157</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.05487804878048781</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26</v>
+      </c>
+      <c r="G33" t="n">
+        <v>255</v>
+      </c>
+      <c r="H33" t="n">
+        <v>454</v>
+      </c>
+      <c r="I33" t="n">
         <v>21</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.05363321799307959</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5961538461538461</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.09841269841269841</v>
+      <c r="J33" t="n">
+        <v>0.05416666666666667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.09867172675521822</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>507</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>709</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>47</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="n">
+        <v>308</v>
+      </c>
+      <c r="H36" t="n">
+        <v>199</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03398058252427184</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.06278026905829596</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>385</v>
+      </c>
+      <c r="H37" t="n">
+        <v>324</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.04424778761061947</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.07772020725388601</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>330</v>
+      </c>
+      <c r="H38" t="n">
+        <v>177</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03804347826086957</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.06965174129353234</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>395</v>
+      </c>
+      <c r="H39" t="n">
+        <v>314</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0308641975308642</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.05390835579514825</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>361</v>
+      </c>
+      <c r="H40" t="n">
+        <v>146</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0457516339869281</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.08235294117647059</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>448</v>
+      </c>
+      <c r="H41" t="n">
+        <v>261</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.07446808510638298</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1276595744680851</v>
       </c>
     </row>
   </sheetData>
